--- a/new_modules/Summary_2022-08-05_L1C.xlsx
+++ b/new_modules/Summary_2022-08-05_L1C.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0209</v>
+        <v>0.297</v>
       </c>
       <c r="C2">
-        <v>-0.0209</v>
+        <v>0.297</v>
       </c>
       <c r="D2">
-        <v>-0.0274</v>
+        <v>0.2825999855995178</v>
       </c>
       <c r="E2">
-        <v>0.2315</v>
+        <v>0.4769000113010406</v>
       </c>
       <c r="F2">
-        <v>-0.1889</v>
+        <v>0.1605000048875809</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0358</v>
+        <v>0.363</v>
       </c>
       <c r="C3">
-        <v>-0.0358</v>
+        <v>0.363</v>
       </c>
       <c r="D3">
-        <v>-0.044</v>
+        <v>0.3715</v>
       </c>
       <c r="E3">
-        <v>0.2958</v>
+        <v>0.59170001745224</v>
       </c>
       <c r="F3">
-        <v>-0.271</v>
+        <v>0.09679999947547913</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0216</v>
+        <v>0.3544</v>
       </c>
       <c r="C4">
-        <v>-0.0216</v>
+        <v>0.3544</v>
       </c>
       <c r="D4">
-        <v>-0.0325</v>
+        <v>0.3569</v>
       </c>
       <c r="E4">
-        <v>0.2196</v>
+        <v>0.4603999853134155</v>
       </c>
       <c r="F4">
-        <v>-0.1209</v>
+        <v>0.1730999946594238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09229999999999999</v>
+        <v>0.2326</v>
       </c>
       <c r="C5">
-        <v>0.09229999999999999</v>
+        <v>0.2326</v>
       </c>
       <c r="D5">
-        <v>0.09660000000000001</v>
+        <v>0.2053</v>
       </c>
       <c r="E5">
-        <v>0.3018</v>
+        <v>0.4365000128746033</v>
       </c>
       <c r="F5">
-        <v>-0.1004</v>
+        <v>0.0908999964594841</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0796</v>
+        <v>0.2486</v>
       </c>
       <c r="C6">
-        <v>0.0796</v>
+        <v>0.2486</v>
       </c>
       <c r="D6">
-        <v>0.0696</v>
+        <v>0.258</v>
       </c>
       <c r="E6">
-        <v>0.2879</v>
+        <v>0.4438000023365021</v>
       </c>
       <c r="F6">
-        <v>-0.1285</v>
+        <v>0.1048000007867813</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0266</v>
+        <v>0.2726</v>
       </c>
       <c r="C7">
-        <v>0.0266</v>
+        <v>0.2726</v>
       </c>
       <c r="D7">
-        <v>0.0122</v>
+        <v>0.2773000001907349</v>
       </c>
       <c r="E7">
-        <v>0.2136</v>
+        <v>0.3648000061511993</v>
       </c>
       <c r="F7">
-        <v>-0.1232</v>
+        <v>0.1791000068187714</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.019</v>
+        <v>0.2662</v>
       </c>
       <c r="C8">
-        <v>0.019</v>
+        <v>0.2662</v>
       </c>
       <c r="D8">
-        <v>0.0034</v>
+        <v>0.2647</v>
       </c>
       <c r="E8">
-        <v>0.2103</v>
+        <v>0.3734999895095825</v>
       </c>
       <c r="F8">
-        <v>-0.1317</v>
+        <v>0.1824000030755997</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-05_L1C.xlsx
+++ b/new_modules/Summary_2022-08-05_L1C.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.297</v>
+        <v>-0.0192</v>
       </c>
       <c r="C2">
-        <v>0.297</v>
+        <v>-0.0192</v>
       </c>
       <c r="D2">
-        <v>0.2825999855995178</v>
+        <v>-0.03030000068247318</v>
       </c>
       <c r="E2">
-        <v>0.4769000113010406</v>
+        <v>0.2311999946832657</v>
       </c>
       <c r="F2">
-        <v>0.1605000048875809</v>
+        <v>-0.07940000295639038</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.363</v>
+        <v>-0.0562</v>
       </c>
       <c r="C3">
-        <v>0.363</v>
+        <v>-0.0562</v>
       </c>
       <c r="D3">
-        <v>0.3715</v>
+        <v>-0.0794</v>
       </c>
       <c r="E3">
-        <v>0.59170001745224</v>
+        <v>0.2745999991893768</v>
       </c>
       <c r="F3">
-        <v>0.09679999947547913</v>
+        <v>-0.07940000295639038</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3544</v>
+        <v>-0.0658</v>
       </c>
       <c r="C4">
-        <v>0.3544</v>
+        <v>-0.0658</v>
       </c>
       <c r="D4">
-        <v>0.3569</v>
+        <v>-0.0794</v>
       </c>
       <c r="E4">
-        <v>0.4603999853134155</v>
+        <v>0.2436999976634979</v>
       </c>
       <c r="F4">
-        <v>0.1730999946594238</v>
+        <v>-0.07940000295639038</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2326</v>
+        <v>0.0953</v>
       </c>
       <c r="C5">
-        <v>0.2326</v>
+        <v>0.0953</v>
       </c>
       <c r="D5">
-        <v>0.2053</v>
+        <v>0.1224</v>
       </c>
       <c r="E5">
-        <v>0.4365000128746033</v>
+        <v>0.354200005531311</v>
       </c>
       <c r="F5">
-        <v>0.0908999964594841</v>
+        <v>-0.07940000295639038</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2486</v>
+        <v>0.0742</v>
       </c>
       <c r="C6">
-        <v>0.2486</v>
+        <v>0.0742</v>
       </c>
       <c r="D6">
-        <v>0.258</v>
+        <v>0.0531</v>
       </c>
       <c r="E6">
-        <v>0.4438000023365021</v>
+        <v>0.3265999853610992</v>
       </c>
       <c r="F6">
-        <v>0.1048000007867813</v>
+        <v>-0.07940000295639038</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2726</v>
+        <v>0.023</v>
       </c>
       <c r="C7">
-        <v>0.2726</v>
+        <v>0.023</v>
       </c>
       <c r="D7">
-        <v>0.2773000001907349</v>
+        <v>0.01250000018626451</v>
       </c>
       <c r="E7">
-        <v>0.3648000061511993</v>
+        <v>0.221000000834465</v>
       </c>
       <c r="F7">
-        <v>0.1791000068187714</v>
+        <v>-0.06440000236034393</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2662</v>
+        <v>0.027</v>
       </c>
       <c r="C8">
-        <v>0.2662</v>
+        <v>0.027</v>
       </c>
       <c r="D8">
-        <v>0.2647</v>
+        <v>0.0179</v>
       </c>
       <c r="E8">
-        <v>0.3734999895095825</v>
+        <v>0.1738000065088272</v>
       </c>
       <c r="F8">
-        <v>0.1824000030755997</v>
+        <v>-0.06440000236034393</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-05_L1C.xlsx
+++ b/new_modules/Summary_2022-08-05_L1C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Загон</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>№7</t>
+  </si>
+  <si>
+    <t>Пастбище</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0192</v>
+        <v>-25.55229949951172</v>
       </c>
       <c r="C2">
         <v>-0.0192</v>
@@ -461,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0562</v>
+        <v>-70.23709869384766</v>
       </c>
       <c r="C3">
         <v>-0.0562</v>
@@ -481,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0658</v>
+        <v>-56.36209869384766</v>
       </c>
       <c r="C4">
         <v>-0.0658</v>
@@ -501,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0953</v>
+        <v>90.31610107421875</v>
       </c>
       <c r="C5">
         <v>0.0953</v>
@@ -521,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0742</v>
+        <v>93.73770141601562</v>
       </c>
       <c r="C6">
         <v>0.0742</v>
@@ -541,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.023</v>
+        <v>22.84869956970215</v>
       </c>
       <c r="C7">
         <v>0.023</v>
@@ -561,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.027</v>
+        <v>30.17490005493164</v>
       </c>
       <c r="C8">
         <v>0.027</v>
@@ -574,6 +577,26 @@
       </c>
       <c r="F8">
         <v>-0.06440000236034393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>84.92591857910156</v>
+      </c>
+      <c r="C9">
+        <v>0.0108</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.354200005531311</v>
+      </c>
+      <c r="F9">
+        <v>-0.07940000295639038</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-05_L1C.xlsx
+++ b/new_modules/Summary_2022-08-05_L1C.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-25.55229949951172</v>
+        <v>-58.93939971923828</v>
       </c>
       <c r="C2">
-        <v>-0.0192</v>
+        <v>-0.0442</v>
       </c>
       <c r="D2">
-        <v>-0.03030000068247318</v>
+        <v>-0.07000000029802322</v>
       </c>
       <c r="E2">
-        <v>0.2311999946832657</v>
+        <v>0.5333999991416931</v>
       </c>
       <c r="F2">
-        <v>-0.07940000295639038</v>
+        <v>-0.1829999983310699</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-70.23709869384766</v>
+        <v>-162.0104064941406</v>
       </c>
       <c r="C3">
-        <v>-0.0562</v>
+        <v>-0.1296</v>
       </c>
       <c r="D3">
-        <v>-0.0794</v>
+        <v>-0.183</v>
       </c>
       <c r="E3">
-        <v>0.2745999991893768</v>
+        <v>0.6333000063896179</v>
       </c>
       <c r="F3">
-        <v>-0.07940000295639038</v>
+        <v>-0.1829999983310699</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-56.36209869384766</v>
+        <v>-130.0059051513672</v>
       </c>
       <c r="C4">
-        <v>-0.0658</v>
+        <v>-0.1519</v>
       </c>
       <c r="D4">
-        <v>-0.0794</v>
+        <v>-0.183</v>
       </c>
       <c r="E4">
-        <v>0.2436999976634979</v>
+        <v>0.5620999932289124</v>
       </c>
       <c r="F4">
-        <v>-0.07940000295639038</v>
+        <v>-0.1829999983310699</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>90.31610107421875</v>
+        <v>208.3249053955078</v>
       </c>
       <c r="C5">
-        <v>0.0953</v>
+        <v>0.2198</v>
       </c>
       <c r="D5">
-        <v>0.1224</v>
+        <v>0.2823</v>
       </c>
       <c r="E5">
-        <v>0.354200005531311</v>
+        <v>0.8169999718666077</v>
       </c>
       <c r="F5">
-        <v>-0.07940000295639038</v>
+        <v>-0.1829999983310699</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>93.73770141601562</v>
+        <v>216.2174072265625</v>
       </c>
       <c r="C6">
-        <v>0.0742</v>
+        <v>0.1711</v>
       </c>
       <c r="D6">
-        <v>0.0531</v>
+        <v>0.1224</v>
       </c>
       <c r="E6">
-        <v>0.3265999853610992</v>
+        <v>0.7531999945640564</v>
       </c>
       <c r="F6">
-        <v>-0.07940000295639038</v>
+        <v>-0.1829999983310699</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>22.84869956970215</v>
+        <v>52.70330047607422</v>
       </c>
       <c r="C7">
-        <v>0.023</v>
+        <v>0.0531</v>
       </c>
       <c r="D7">
-        <v>0.01250000018626451</v>
+        <v>0.02869999967515469</v>
       </c>
       <c r="E7">
-        <v>0.221000000834465</v>
+        <v>0.5097000002861023</v>
       </c>
       <c r="F7">
-        <v>-0.06440000236034393</v>
+        <v>-0.1485999971628189</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>30.17490005493164</v>
+        <v>69.60199737548828</v>
       </c>
       <c r="C8">
-        <v>0.027</v>
+        <v>0.0624</v>
       </c>
       <c r="D8">
-        <v>0.0179</v>
+        <v>0.0412</v>
       </c>
       <c r="E8">
-        <v>0.1738000065088272</v>
+        <v>0.4009999930858612</v>
       </c>
       <c r="F8">
-        <v>-0.06440000236034393</v>
+        <v>-0.1485999971628189</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>84.92591857910156</v>
+        <v>195.8919219970703</v>
       </c>
       <c r="C9">
-        <v>0.0108</v>
+        <v>0.0249</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.354200005531311</v>
+        <v>0.8169999718666077</v>
       </c>
       <c r="F9">
-        <v>-0.07940000295639038</v>
+        <v>-0.1829999983310699</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-05_L1C.xlsx
+++ b/new_modules/Summary_2022-08-05_L1C.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-58.93939971923828</v>
+        <v>838.1461181640625</v>
       </c>
       <c r="C2">
-        <v>-0.0442</v>
+        <v>0.6288</v>
       </c>
       <c r="D2">
-        <v>-0.07000000029802322</v>
+        <v>0.5997999906539917</v>
       </c>
       <c r="E2">
-        <v>0.5333999991416931</v>
+        <v>0.9879000186920166</v>
       </c>
       <c r="F2">
-        <v>-0.1829999983310699</v>
+        <v>0.1492000073194504</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-162.0104064941406</v>
+        <v>956.6784057617188</v>
       </c>
       <c r="C3">
-        <v>-0.1296</v>
+        <v>0.7653</v>
       </c>
       <c r="D3">
-        <v>-0.183</v>
+        <v>0.7966</v>
       </c>
       <c r="E3">
-        <v>0.6333000063896179</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>-0.1829999983310699</v>
+        <v>0.1378999948501587</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-130.0059051513672</v>
+        <v>661.7163696289062</v>
       </c>
       <c r="C4">
-        <v>-0.1519</v>
+        <v>0.773</v>
       </c>
       <c r="D4">
-        <v>-0.183</v>
+        <v>0.7822</v>
       </c>
       <c r="E4">
-        <v>0.5620999932289124</v>
+        <v>0.9682999849319458</v>
       </c>
       <c r="F4">
-        <v>-0.1829999983310699</v>
+        <v>0.2104000002145767</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>208.3249053955078</v>
+        <v>420.0038146972656</v>
       </c>
       <c r="C5">
-        <v>0.2198</v>
+        <v>0.443</v>
       </c>
       <c r="D5">
-        <v>0.2823</v>
+        <v>0.365</v>
       </c>
       <c r="E5">
-        <v>0.8169999718666077</v>
+        <v>0.9375</v>
       </c>
       <c r="F5">
-        <v>-0.1829999983310699</v>
+        <v>0.05860000103712082</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>216.2174072265625</v>
+        <v>607.0703735351562</v>
       </c>
       <c r="C6">
-        <v>0.1711</v>
+        <v>0.4803</v>
       </c>
       <c r="D6">
-        <v>0.1224</v>
+        <v>0.5135</v>
       </c>
       <c r="E6">
-        <v>0.7531999945640564</v>
+        <v>0.9347000122070312</v>
       </c>
       <c r="F6">
-        <v>-0.1829999983310699</v>
+        <v>0.09529999643564224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>52.70330047607422</v>
+        <v>541.568115234375</v>
       </c>
       <c r="C7">
-        <v>0.0531</v>
+        <v>0.5454</v>
       </c>
       <c r="D7">
-        <v>0.02869999967515469</v>
+        <v>0.5611000061035156</v>
       </c>
       <c r="E7">
-        <v>0.5097000002861023</v>
+        <v>0.7748000025749207</v>
       </c>
       <c r="F7">
-        <v>-0.1485999971628189</v>
+        <v>0.2646999955177307</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>69.60199737548828</v>
+        <v>596.7949829101562</v>
       </c>
       <c r="C8">
-        <v>0.0624</v>
+        <v>0.5348000000000001</v>
       </c>
       <c r="D8">
-        <v>0.0412</v>
+        <v>0.5403</v>
       </c>
       <c r="E8">
-        <v>0.4009999930858612</v>
+        <v>0.7748000025749207</v>
       </c>
       <c r="F8">
-        <v>-0.1485999971628189</v>
+        <v>0.3339000046253204</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>195.8919219970703</v>
+        <v>4621.97802734375</v>
       </c>
       <c r="C9">
-        <v>0.0249</v>
+        <v>0.5959</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5775</v>
       </c>
       <c r="E9">
-        <v>0.8169999718666077</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>-0.1829999983310699</v>
+        <v>0.05860000103712082</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-05_L1C.xlsx
+++ b/new_modules/Summary_2022-08-05_L1C.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>838.1461181640625</v>
+        <v>-341.1380920410156</v>
       </c>
       <c r="C2">
-        <v>0.6288</v>
+        <v>-0.2559</v>
       </c>
       <c r="D2">
-        <v>0.5997999906539917</v>
+        <v>-0.1879999935626984</v>
       </c>
       <c r="E2">
-        <v>0.9879000186920166</v>
+        <v>0.5929999947547913</v>
       </c>
       <c r="F2">
-        <v>0.1492000073194504</v>
+        <v>-1.027099967002869</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>956.6784057617188</v>
+        <v>-230.3025054931641</v>
       </c>
       <c r="C3">
-        <v>0.7653</v>
+        <v>-0.1842</v>
       </c>
       <c r="D3">
-        <v>0.7966</v>
+        <v>-0.0941</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.8482000231742859</v>
       </c>
       <c r="F3">
-        <v>0.1378999948501587</v>
+        <v>-0.9954000115394592</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>661.7163696289062</v>
+        <v>-148.7570953369141</v>
       </c>
       <c r="C4">
-        <v>0.773</v>
+        <v>-0.1738</v>
       </c>
       <c r="D4">
-        <v>0.7822</v>
+        <v>-0.1648</v>
       </c>
       <c r="E4">
-        <v>0.9682999849319458</v>
+        <v>0.8001000285148621</v>
       </c>
       <c r="F4">
-        <v>0.2104000002145767</v>
+        <v>-0.6158999800682068</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>420.0038146972656</v>
+        <v>186.0527954101562</v>
       </c>
       <c r="C5">
-        <v>0.443</v>
+        <v>0.1963</v>
       </c>
       <c r="D5">
-        <v>0.365</v>
+        <v>0.1874</v>
       </c>
       <c r="E5">
-        <v>0.9375</v>
+        <v>1.077999949455261</v>
       </c>
       <c r="F5">
-        <v>0.05860000103712082</v>
+        <v>-0.4821999967098236</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>607.0703735351562</v>
+        <v>208.341796875</v>
       </c>
       <c r="C6">
-        <v>0.4803</v>
+        <v>0.1648</v>
       </c>
       <c r="D6">
-        <v>0.5135</v>
+        <v>0.0939</v>
       </c>
       <c r="E6">
-        <v>0.9347000122070312</v>
+        <v>1.016800045967102</v>
       </c>
       <c r="F6">
-        <v>0.09529999643564224</v>
+        <v>-0.4571999907493591</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>541.568115234375</v>
+        <v>-58.21760177612305</v>
       </c>
       <c r="C7">
-        <v>0.5454</v>
+        <v>-0.0586</v>
       </c>
       <c r="D7">
-        <v>0.5611000061035156</v>
+        <v>-0.1054999977350235</v>
       </c>
       <c r="E7">
-        <v>0.7748000025749207</v>
+        <v>0.7534000277519226</v>
       </c>
       <c r="F7">
-        <v>0.2646999955177307</v>
+        <v>-0.5670999884605408</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>596.7949829101562</v>
+        <v>-104.538200378418</v>
       </c>
       <c r="C8">
-        <v>0.5348000000000001</v>
+        <v>-0.09370000000000001</v>
       </c>
       <c r="D8">
-        <v>0.5403</v>
+        <v>-0.1438</v>
       </c>
       <c r="E8">
-        <v>0.7748000025749207</v>
+        <v>0.5921000242233276</v>
       </c>
       <c r="F8">
-        <v>0.3339000046253204</v>
+        <v>-0.5655999779701233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>4621.97802734375</v>
+        <v>-488.5588989257812</v>
       </c>
       <c r="C9">
-        <v>0.5959</v>
+        <v>-0.06370000000000001</v>
       </c>
       <c r="D9">
-        <v>0.5775</v>
+        <v>-0.0602</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>1.077999949455261</v>
       </c>
       <c r="F9">
-        <v>0.05860000103712082</v>
+        <v>-1.027099967002869</v>
       </c>
     </row>
   </sheetData>
